--- a/Data/Forecasts/DA/2023-12-05_exo[].xlsx
+++ b/Data/Forecasts/DA/2023-12-05_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45265</v>
       </c>
       <c r="B2" t="n">
-        <v>88.29221343994141</v>
+        <v>89.74896240234375</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45265.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>88.19871520996094</v>
+        <v>89.8494873046875</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45265.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>90.35321044921875</v>
+        <v>91.52709197998047</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45265.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>90.2861328125</v>
+        <v>91.65299987792969</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45265.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>88.99797058105469</v>
+        <v>90.18277740478516</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45265.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>89.12351989746094</v>
+        <v>90.31535339355469</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45265.125</v>
       </c>
       <c r="B8" t="n">
-        <v>90.20650482177734</v>
+        <v>89.57313537597656</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45265.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>90.33720397949219</v>
+        <v>89.72521209716797</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45265.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>93.18878173828125</v>
+        <v>89.92959594726562</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45265.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>93.31694030761719</v>
+        <v>90.07334136962891</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45265.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>96.46742248535156</v>
+        <v>94.24617004394531</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45265.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>96.5943603515625</v>
+        <v>94.38392639160156</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45265.25</v>
       </c>
       <c r="B14" t="n">
-        <v>107.428825378418</v>
+        <v>104.8970031738281</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45265.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>107.5551376342773</v>
+        <v>105.0306930541992</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45265.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>132.3457489013672</v>
+        <v>129.8565216064453</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45265.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>132.4708557128906</v>
+        <v>129.9865875244141</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45265.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>152.7924957275391</v>
+        <v>145.1612091064453</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45265.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>152.917724609375</v>
+        <v>145.2893981933594</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45265.375</v>
       </c>
       <c r="B20" t="n">
-        <v>163.7680358886719</v>
+        <v>158.1814422607422</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45265.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>163.8877563476562</v>
+        <v>158.3042449951172</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45265.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>159.5975189208984</v>
+        <v>157.7744903564453</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45265.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>159.7105712890625</v>
+        <v>157.8909454345703</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45265.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>149.9372863769531</v>
+        <v>151.5064392089844</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45265.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>150.0439758300781</v>
+        <v>151.6171417236328</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45265.5</v>
       </c>
       <c r="B26" t="n">
-        <v>146.7488708496094</v>
+        <v>150.1309661865234</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45265.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>146.8507843017578</v>
+        <v>150.2380065917969</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45265.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>146.0815124511719</v>
+        <v>148.9734039306641</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45265.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>146.1809539794922</v>
+        <v>149.0795288085938</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45265.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>148.4971160888672</v>
+        <v>150.6069183349609</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45265.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>148.5965576171875</v>
+        <v>150.7148590087891</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45265.625</v>
       </c>
       <c r="B32" t="n">
-        <v>153.2281646728516</v>
+        <v>159.5521392822266</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45265.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>153.3293762207031</v>
+        <v>159.6636352539062</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45265.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>183.7156524658203</v>
+        <v>185.2494201660156</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45265.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>183.8193206787109</v>
+        <v>185.3649749755859</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45265.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>192.3031311035156</v>
+        <v>200.2365264892578</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45265.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>192.4093780517578</v>
+        <v>200.3559875488281</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45265.75</v>
       </c>
       <c r="B38" t="n">
-        <v>161.4266967773438</v>
+        <v>169.2181549072266</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45265.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>161.5352325439453</v>
+        <v>169.3409423828125</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45265.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>129.9783325195312</v>
+        <v>142.3582458496094</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45265.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>130.0888519287109</v>
+        <v>142.4840393066406</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45265.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>111.9629974365234</v>
+        <v>128.73974609375</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45265.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>112.0755081176758</v>
+        <v>128.8685760498047</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45265.875</v>
       </c>
       <c r="B44" t="n">
-        <v>108.8977813720703</v>
+        <v>119.0081939697266</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45265.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>109.0129089355469</v>
+        <v>119.1407012939453</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45265.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>102.7467803955078</v>
+        <v>109.4854049682617</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45265.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>102.8708877563477</v>
+        <v>109.6226806640625</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45265.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>108.6094589233398</v>
+        <v>110.6326065063477</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45265.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>108.7384872436523</v>
+        <v>110.7757186889648</v>
       </c>
     </row>
   </sheetData>
